--- a/medicine/Sexualité et sexologie/La_bestia_nello_spazio/La_bestia_nello_spazio.xlsx
+++ b/medicine/Sexualité et sexologie/La_bestia_nello_spazio/La_bestia_nello_spazio.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La bestia nello spazio est un film de science-fiction érotique italien réalisé par Alfonso Brescia et sorti en 1980.
-Le film est inspiré, du moins par son nom, par le film érotique français La Bête de Walerian Borowczyk, sorti en 1975[1]. L'actrice finlandaise Sirpa Lane joue d'ailleurs le rôle principal dans les deux films.
+Le film est inspiré, du moins par son nom, par le film érotique français La Bête de Walerian Borowczyk, sorti en 1975. L'actrice finlandaise Sirpa Lane joue d'ailleurs le rôle principal dans les deux films.
 </t>
         </is>
       </c>
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -538,25 +552,27 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données IMDb.
-Titre original : La bestia nello spazio[2],[3]
+Titre original : La bestia nello spazio,
 Réalisation : Alfonso Brescia (sous le nom de « Al Bradley »)
 Assistant réalisateur : Massimo Carocci
-Scénario : Alfonso Brescia, Aldo Crudo (it)[3]
-Photographie : Silvio Fraschetti[3]
-Montage : Carlo Broglio[3]
-Musique : Marcello Giombini[3]
+Scénario : Alfonso Brescia, Aldo Crudo (it)
+Photographie : Silvio Fraschetti
+Montage : Carlo Broglio
+Musique : Marcello Giombini
 Son : Pietro Spadoni
 Décors : Mimmo Scavia (it)
-Costumes : Elena De Cupis[3]
+Costumes : Elena De Cupis
 Production : Aldo Crudo (it)
-Sociétés de production : Nais Film, Società italiana gestione meccanizzate aziendali elaborazioni contabili (SIGMAECo), LU.MA.FIN[3].
+Sociétés de production : Nais Film, Società italiana gestione meccanizzate aziendali elaborazioni contabili (SIGMAECo), LU.MA.FIN.
 Pays de production :  Italie
 Langue de tournage : italien
 Format : Couleur (Telecolor) - 1,85:1 - Son mono - 35 mm
-Durée : 86 minutes (1h26[2])
+Durée : 86 minutes (1h26)
 Genre : Science-fiction érotique
 Dates de sortie :
 Italie : 13 mai 1980
@@ -588,7 +604,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Sirpa Lane : Sondra Richardson
 Vassili Karis : Larry Madison
@@ -630,7 +648,9 @@
           <t>Les films de science-fiction d'Alfonso Brescia</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Brescia a également tourné quatre films de science-fiction non érotiques :
 1977 : Anno zero - Guerra nello spazio
